--- a/CP_1.21mW_polarimeter.xlsx
+++ b/CP_1.21mW_polarimeter.xlsx
@@ -16,6 +16,8 @@
     <sheet name="measured" sheetId="1" r:id="rId1"/>
     <sheet name="calculated" sheetId="2" r:id="rId2"/>
     <sheet name="rho_mat" sheetId="3" r:id="rId3"/>
+    <sheet name="rho_min" sheetId="4" r:id="rId7"/>
+    <sheet name="rho_max" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="10">
   <si>
     <t>s0</t>
   </si>
@@ -88,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="226">
     <border>
       <left/>
       <right/>
@@ -125,11 +127,213 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -154,6 +358,208 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="225" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1263,22 +1669,22 @@
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="220" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="220" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1307,7 +1713,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.046448475234149973</v>
+        <v>0.046448475234149959</v>
       </c>
       <c r="C3">
         <v>0.95355152476585003</v>
@@ -1330,7 +1736,7 @@
         <v>0.18299262298526431</v>
       </c>
       <c r="C4">
-        <v>0.81700737701473569</v>
+        <v>0.8170073770147358</v>
       </c>
       <c r="D4">
         <v>-0.27185854170345869</v>
@@ -1373,10 +1779,10 @@
         <v>0.53097311618840859</v>
       </c>
       <c r="D6">
-        <v>-0.13156991358567205</v>
+        <v>-0.13156991358567202</v>
       </c>
       <c r="E6">
-        <v>-0.48138344766786312</v>
+        <v>-0.48138344766786306</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1467,7 +1873,7 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>0.0046085791735393485</v>
+        <v>0.0046085791735393468</v>
       </c>
       <c r="C11">
         <v>0.9953914208264607</v>
@@ -1487,7 +1893,7 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>0.057787635148832735</v>
+        <v>0.057787635148832728</v>
       </c>
       <c r="C12">
         <v>0.94221236485116722</v>
@@ -1513,7 +1919,7 @@
         <v>0.79226354101372398</v>
       </c>
       <c r="D13">
-        <v>-0.29563455791987331</v>
+        <v>-0.29563455791987325</v>
       </c>
       <c r="E13">
         <v>0.27781690105870971</v>
@@ -1533,7 +1939,7 @@
         <v>0.62041340786825849</v>
       </c>
       <c r="D14">
-        <v>-0.27124591275110416</v>
+        <v>-0.27124591275110421</v>
       </c>
       <c r="E14">
         <v>0.40240062848443403</v>
@@ -1665,4 +2071,838 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.42578125" customWidth="true"/>
+    <col min="5" max="5" width="14.42578125" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="222" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="222" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="222" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="222" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="222" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.10751885112282542</v>
+      </c>
+      <c r="C2">
+        <v>0.89248114887717456</v>
+      </c>
+      <c r="D2">
+        <v>-0.010596991019683713</v>
+      </c>
+      <c r="E2">
+        <v>0.047018582003302521</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.13237696944584326</v>
+      </c>
+      <c r="C3">
+        <v>0.86762303055415679</v>
+      </c>
+      <c r="D3">
+        <v>-0.14285830967334529</v>
+      </c>
+      <c r="E3">
+        <v>-0.093219174465882682</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>0.24328480732079821</v>
+      </c>
+      <c r="C4">
+        <v>0.75671519267920173</v>
+      </c>
+      <c r="D4">
+        <v>-0.22015329287319579</v>
+      </c>
+      <c r="E4">
+        <v>-0.22265936350511908</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0.38205654323897253</v>
+      </c>
+      <c r="C5">
+        <v>0.61794345676102747</v>
+      </c>
+      <c r="D5">
+        <v>-0.20432566090514426</v>
+      </c>
+      <c r="E5">
+        <v>-0.32547896278906718</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0.47508718504258246</v>
+      </c>
+      <c r="C6">
+        <v>0.52491281495741748</v>
+      </c>
+      <c r="D6">
+        <v>-0.10582651390917869</v>
+      </c>
+      <c r="E6">
+        <v>-0.3871943876219246</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>0.48375944976013191</v>
+      </c>
+      <c r="C7">
+        <v>0.51624055023986815</v>
+      </c>
+      <c r="D7">
+        <v>0.028141625455643415</v>
+      </c>
+      <c r="E7">
+        <v>-0.39626942585278141</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>0.39936054132861215</v>
+      </c>
+      <c r="C8">
+        <v>0.60063945867138779</v>
+      </c>
+      <c r="D8">
+        <v>0.1370308689327645</v>
+      </c>
+      <c r="E8">
+        <v>-0.36076150209992086</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>0.27635297324174463</v>
+      </c>
+      <c r="C9">
+        <v>0.72364702675825532</v>
+      </c>
+      <c r="D9">
+        <v>0.15694539481340974</v>
+      </c>
+      <c r="E9">
+        <v>-0.28472209584636626</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>0.15863259598023485</v>
+      </c>
+      <c r="C10">
+        <v>0.84136740401976506</v>
+      </c>
+      <c r="D10">
+        <v>0.09755378681666721</v>
+      </c>
+      <c r="E10">
+        <v>-0.17697967630100184</v>
+      </c>
+      <c r="F10">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>0.10311053966080717</v>
+      </c>
+      <c r="C11">
+        <v>0.89688946033919281</v>
+      </c>
+      <c r="D11">
+        <v>-0.029276244501280455</v>
+      </c>
+      <c r="E11">
+        <v>-0.045687462349127086</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>0.1412879993239885</v>
+      </c>
+      <c r="C12">
+        <v>0.8587120006760115</v>
+      </c>
+      <c r="D12">
+        <v>-0.16376507238135107</v>
+      </c>
+      <c r="E12">
+        <v>0.094911934360684666</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <v>0.26104696909219521</v>
+      </c>
+      <c r="C13">
+        <v>0.73895303090780473</v>
+      </c>
+      <c r="D13">
+        <v>-0.2417091554116402</v>
+      </c>
+      <c r="E13">
+        <v>0.22714153915719767</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>0.40122495728848212</v>
+      </c>
+      <c r="C14">
+        <v>0.59877504271151794</v>
+      </c>
+      <c r="D14">
+        <v>-0.22250285156479652</v>
+      </c>
+      <c r="E14">
+        <v>0.33008898235990136</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <v>0.4967685669901174</v>
+      </c>
+      <c r="C15">
+        <v>0.5032314330098826</v>
+      </c>
+      <c r="D15">
+        <v>-0.11663903887009502</v>
+      </c>
+      <c r="E15">
+        <v>0.38431314289981888</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <v>0.50325251847504326</v>
+      </c>
+      <c r="C16">
+        <v>0.49674748152495674</v>
+      </c>
+      <c r="D16">
+        <v>0.026739759587709609</v>
+      </c>
+      <c r="E16">
+        <v>0.39626199744679336</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <v>0.42307029927008666</v>
+      </c>
+      <c r="C17">
+        <v>0.57692970072991334</v>
+      </c>
+      <c r="D17">
+        <v>0.13405121152965521</v>
+      </c>
+      <c r="E17">
+        <v>0.36083349310465906</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>160</v>
+      </c>
+      <c r="B18">
+        <v>0.28288374549416007</v>
+      </c>
+      <c r="C18">
+        <v>0.71711625450583993</v>
+      </c>
+      <c r="D18">
+        <v>0.16762541330327385</v>
+      </c>
+      <c r="E18">
+        <v>0.27910288245314552</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <v>0.15823002616890203</v>
+      </c>
+      <c r="C19">
+        <v>0.84176997383109786</v>
+      </c>
+      <c r="D19">
+        <v>0.10678235509483582</v>
+      </c>
+      <c r="E19">
+        <v>0.16994591801548967</v>
+      </c>
+      <c r="F19">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>180</v>
+      </c>
+      <c r="B20">
+        <v>0.10332930312388966</v>
+      </c>
+      <c r="C20">
+        <v>0.89667069687611034</v>
+      </c>
+      <c r="D20">
+        <v>-0.010390213092367789</v>
+      </c>
+      <c r="E20">
+        <v>0.044990134523109786</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.42578125" customWidth="true"/>
+    <col min="5" max="5" width="14.42578125" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="224" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="224" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="224" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="224" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="224" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="224" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0037280465348734876</v>
+      </c>
+      <c r="C2">
+        <v>0.99627195346512643</v>
+      </c>
+      <c r="D2">
+        <v>-0.013399342743558416</v>
+      </c>
+      <c r="E2">
+        <v>0.059452545954612121</v>
+      </c>
+      <c r="F2">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.046448475500789906</v>
+      </c>
+      <c r="C3">
+        <v>0.9535515244992101</v>
+      </c>
+      <c r="D3">
+        <v>-0.17625012242039304</v>
+      </c>
+      <c r="E3">
+        <v>-0.11500829702596792</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>0.18299262328529478</v>
+      </c>
+      <c r="C4">
+        <v>0.81700737671470514</v>
+      </c>
+      <c r="D4">
+        <v>-0.27185854144615335</v>
+      </c>
+      <c r="E4">
+        <v>-0.27495318835269816</v>
+      </c>
+      <c r="F4">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0.35330061352512782</v>
+      </c>
+      <c r="C5">
+        <v>0.64669938647487224</v>
+      </c>
+      <c r="D5">
+        <v>-0.2541425350673801</v>
+      </c>
+      <c r="E5">
+        <v>-0.40483436269277939</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0.46902688382941682</v>
+      </c>
+      <c r="C6">
+        <v>0.53097311617058318</v>
+      </c>
+      <c r="D6">
+        <v>-0.13156991350995073</v>
+      </c>
+      <c r="E6">
+        <v>-0.48138344739083849</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>0.47957673438743614</v>
+      </c>
+      <c r="C7">
+        <v>0.52042326561256391</v>
+      </c>
+      <c r="D7">
+        <v>0.035389434653450638</v>
+      </c>
+      <c r="E7">
+        <v>-0.49832768094655794</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>0.37382737162118568</v>
+      </c>
+      <c r="C8">
+        <v>0.62617262837881427</v>
+      </c>
+      <c r="D8">
+        <v>0.17179687898296683</v>
+      </c>
+      <c r="E8">
+        <v>-0.45229006136116223</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>0.21662222497073449</v>
+      </c>
+      <c r="C9">
+        <v>0.78337777502926553</v>
+      </c>
+      <c r="D9">
+        <v>0.19886173953650388</v>
+      </c>
+      <c r="E9">
+        <v>-0.36076452789075286</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>0.069740237018533768</v>
+      </c>
+      <c r="C10">
+        <v>0.93025976298146629</v>
+      </c>
+      <c r="D10">
+        <v>0.12295687490787335</v>
+      </c>
+      <c r="E10">
+        <v>-0.22306533277968371</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>0.0046085796420971816</v>
+      </c>
+      <c r="C11">
+        <v>0.99539142035790285</v>
+      </c>
+      <c r="D11">
+        <v>-0.036542165503310998</v>
+      </c>
+      <c r="E11">
+        <v>-0.057026399356484125</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>0.057787635435619433</v>
+      </c>
+      <c r="C12">
+        <v>0.94221236456438062</v>
+      </c>
+      <c r="D12">
+        <v>-0.20188602487326024</v>
+      </c>
+      <c r="E12">
+        <v>0.11700537155132996</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <v>0.20773645934662813</v>
+      </c>
+      <c r="C13">
+        <v>0.7922635406533719</v>
+      </c>
+      <c r="D13">
+        <v>-0.29563455755536411</v>
+      </c>
+      <c r="E13">
+        <v>0.27781690071616005</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>0.37958659224060654</v>
+      </c>
+      <c r="C14">
+        <v>0.62041340775939346</v>
+      </c>
+      <c r="D14">
+        <v>-0.27124591250594798</v>
+      </c>
+      <c r="E14">
+        <v>0.40240062812092575</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <v>0.495977164927634</v>
+      </c>
+      <c r="C15">
+        <v>0.504022835072366</v>
+      </c>
+      <c r="D15">
+        <v>-0.14520481004516397</v>
+      </c>
+      <c r="E15">
+        <v>0.47843429998406578</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <v>0.50409455060018538</v>
+      </c>
+      <c r="C16">
+        <v>0.49590544939981474</v>
+      </c>
+      <c r="D16">
+        <v>0.03366231414479845</v>
+      </c>
+      <c r="E16">
+        <v>0.49884875733251999</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <v>0.40201070597430849</v>
+      </c>
+      <c r="C17">
+        <v>0.59798929402569156</v>
+      </c>
+      <c r="D17">
+        <v>0.17074788354105627</v>
+      </c>
+      <c r="E17">
+        <v>0.45961207329123593</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>160</v>
+      </c>
+      <c r="B18">
+        <v>0.22258914104271463</v>
+      </c>
+      <c r="C18">
+        <v>0.77741085895728534</v>
+      </c>
+      <c r="D18">
+        <v>0.21417608733794929</v>
+      </c>
+      <c r="E18">
+        <v>0.35661157905935958</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <v>0.068849860138126953</v>
+      </c>
+      <c r="C19">
+        <v>0.93115013986187312</v>
+      </c>
+      <c r="D19">
+        <v>0.13470822734319882</v>
+      </c>
+      <c r="E19">
+        <v>0.21439041440645615</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>180</v>
+      </c>
+      <c r="B20">
+        <v>0.0033534720060074109</v>
+      </c>
+      <c r="C20">
+        <v>0.99664652799399256</v>
+      </c>
+      <c r="D20">
+        <v>-0.013008934862294255</v>
+      </c>
+      <c r="E20">
+        <v>0.056329328787963796</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/CP_1.21mW_polarimeter.xlsx
+++ b/CP_1.21mW_polarimeter.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="10">
   <si>
     <t>s0</t>
   </si>
@@ -90,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="226">
+  <borders count="232">
     <border>
       <left/>
       <right/>
@@ -329,11 +329,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -560,6 +566,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="223" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="224" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="231" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1664,27 +1676,27 @@
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="14.42578125" customWidth="true"/>
-    <col min="6" max="6" width="8.5703125" customWidth="true"/>
-    <col min="5" max="5" width="14.42578125" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="226" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="220" t="s">
+      <c r="B1" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="220" t="s">
+      <c r="C1" s="226" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="220" t="s">
+      <c r="D1" s="226" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="220" t="s">
+      <c r="E1" s="226" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="220" t="s">
+      <c r="F1" s="226" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1693,19 +1705,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0082644629289914083</v>
+        <v>0.008264462841394914</v>
       </c>
       <c r="C2">
-        <v>0.99173553707100859</v>
+        <v>0.9917355371563783</v>
       </c>
       <c r="D2">
-        <v>-0.013276859500917232</v>
+        <v>-0.013276859503961149</v>
       </c>
       <c r="E2">
-        <v>0.058909090894826044</v>
+        <v>0.058909090912630122</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.99999999999554645</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
@@ -1713,19 +1725,19 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.046448475234149959</v>
+        <v>0.046448475852128641</v>
       </c>
       <c r="C3">
-        <v>0.95355152476585003</v>
+        <v>0.9535515241649235</v>
       </c>
       <c r="D3">
-        <v>-0.1762501225240356</v>
+        <v>-0.17625012228720854</v>
       </c>
       <c r="E3">
-        <v>-0.11500829709359939</v>
+        <v>-0.11500829693910473</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>1.0000000000341043</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
@@ -1733,19 +1745,19 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0.18299262298526431</v>
+        <v>0.18299262341683509</v>
       </c>
       <c r="C4">
-        <v>0.8170073770147358</v>
+        <v>0.81700737660106326</v>
       </c>
       <c r="D4">
-        <v>-0.27185854170345869</v>
+        <v>-0.2718585413405229</v>
       </c>
       <c r="E4">
-        <v>-0.27495318861293222</v>
+        <v>-0.27495318824585713</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>1.0000000000357967</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
@@ -1753,19 +1765,19 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>0.3533006133941487</v>
+        <v>0.35330061361346921</v>
       </c>
       <c r="C5">
-        <v>0.64669938660585125</v>
+        <v>0.64669938642161529</v>
       </c>
       <c r="D5">
-        <v>-0.25414253529428721</v>
+        <v>-0.2541425349444128</v>
       </c>
       <c r="E5">
-        <v>-0.40483436305422127</v>
+        <v>-0.40483436249630395</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>1.0000000000701688</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
@@ -1773,19 +1785,19 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.46902688381159136</v>
+        <v>0.4690268838696145</v>
       </c>
       <c r="C6">
-        <v>0.53097311618840859</v>
+        <v>0.53097311616322795</v>
       </c>
       <c r="D6">
-        <v>-0.13156991358567202</v>
+        <v>-0.13156991340893193</v>
       </c>
       <c r="E6">
-        <v>-0.48138344766786306</v>
+        <v>-0.48138344701968261</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>1.0000000000656848</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
@@ -1793,19 +1805,19 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>0.47967479674929719</v>
+        <v>0.47967479674520053</v>
       </c>
       <c r="C7">
-        <v>0.52032520325070286</v>
+        <v>0.52032520319007003</v>
       </c>
       <c r="D7">
-        <v>0.035219512192817846</v>
+        <v>0.035219512142523966</v>
       </c>
       <c r="E7">
-        <v>-0.49593495931714882</v>
+        <v>-0.49593495862677223</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.99999999987054111</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
@@ -1813,19 +1825,19 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>0.37412601626020431</v>
+        <v>0.37412601628880082</v>
       </c>
       <c r="C8">
-        <v>0.62587398373979564</v>
+        <v>0.62587398369175029</v>
       </c>
       <c r="D8">
-        <v>0.17139024390238225</v>
+        <v>0.17139024385020704</v>
       </c>
       <c r="E8">
-        <v>-0.45121951219497253</v>
+        <v>-0.45121951205761734</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.99999999996110223</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
@@ -1833,19 +1845,19 @@
         <v>70</v>
       </c>
       <c r="B9">
-        <v>0.21967741943949085</v>
+        <v>0.21967741929631007</v>
       </c>
       <c r="C9">
-        <v>0.78032258056050918</v>
+        <v>0.78032258064367899</v>
       </c>
       <c r="D9">
-        <v>0.19671774187607882</v>
+        <v>0.19671774195549646</v>
       </c>
       <c r="E9">
-        <v>-0.35687499989223043</v>
+        <v>-0.3568750000363059</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.99999999987997823</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
@@ -1853,19 +1865,19 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>0.07258064522020917</v>
+        <v>0.072580646227757714</v>
       </c>
       <c r="C10">
-        <v>0.92741935477979087</v>
+        <v>0.92741935372602391</v>
       </c>
       <c r="D10">
-        <v>0.12214516127348515</v>
+        <v>0.12214516097896268</v>
       </c>
       <c r="E10">
-        <v>-0.2215927419049378</v>
+        <v>-0.22159274137059756</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.99999999990756328</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
@@ -1873,19 +1885,19 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>0.0046085791735393468</v>
+        <v>0.0046085801886392094</v>
       </c>
       <c r="C11">
-        <v>0.9953914208264607</v>
+        <v>0.99539141995227443</v>
       </c>
       <c r="D11">
-        <v>-0.036542165537811158</v>
+        <v>-0.036542165468236805</v>
       </c>
       <c r="E11">
-        <v>-0.057026399410324606</v>
+        <v>-0.057026399301744121</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>1.0000000002818275</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
@@ -1893,19 +1905,19 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>0.057787635148832728</v>
+        <v>0.057787635755947947</v>
       </c>
       <c r="C12">
-        <v>0.94221236485116722</v>
+        <v>0.94221236426007848</v>
       </c>
       <c r="D12">
-        <v>-0.20188602500421909</v>
+        <v>-0.20188602473064468</v>
       </c>
       <c r="E12">
-        <v>0.11700537162723168</v>
+        <v>0.11700537146875015</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>1.000000000032053</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
@@ -1913,19 +1925,19 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>0.20773645898627602</v>
+        <v>0.20773645941440633</v>
       </c>
       <c r="C13">
-        <v>0.79226354101372398</v>
+        <v>0.79226354059828519</v>
       </c>
       <c r="D13">
-        <v>-0.29563455791987325</v>
+        <v>-0.29563455749228845</v>
       </c>
       <c r="E13">
-        <v>0.27781690105870971</v>
+        <v>0.27781690065696585</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>1.0000000000253833</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
@@ -1933,19 +1945,19 @@
         <v>120</v>
       </c>
       <c r="B14">
-        <v>0.37958659213174151</v>
+        <v>0.37958659231454195</v>
       </c>
       <c r="C14">
-        <v>0.62041340786825849</v>
+        <v>0.62041340769691711</v>
       </c>
       <c r="D14">
-        <v>-0.27124591275110421</v>
+        <v>-0.27124591235124396</v>
       </c>
       <c r="E14">
-        <v>0.40240062848443403</v>
+        <v>0.4024006278903508</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>1.0000000000229181</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
@@ -1953,19 +1965,19 @@
         <v>130</v>
       </c>
       <c r="B15">
-        <v>0.49597716492485017</v>
+        <v>0.49597716495432942</v>
       </c>
       <c r="C15">
-        <v>0.50402283507514978</v>
+        <v>0.50402283509293011</v>
       </c>
       <c r="D15">
-        <v>-0.14520481014566558</v>
+        <v>-0.1452048099352814</v>
       </c>
       <c r="E15">
-        <v>0.47843430031519485</v>
+        <v>0.47843429962065692</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>1.0000000000945191</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
@@ -1973,19 +1985,19 @@
         <v>140</v>
       </c>
       <c r="B16">
-        <v>0.5040714285710326</v>
+        <v>0.50407142852822517</v>
       </c>
       <c r="C16">
-        <v>0.49592857142896735</v>
+        <v>0.49592857140123858</v>
       </c>
       <c r="D16">
-        <v>0.033472222218967541</v>
+        <v>0.033472222155618743</v>
       </c>
       <c r="E16">
-        <v>0.49603174598351424</v>
+        <v>0.496031745067542</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.99999999985892751</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
@@ -1993,19 +2005,19 @@
         <v>150</v>
       </c>
       <c r="B17">
-        <v>0.40347244097732687</v>
+        <v>0.4034724409221585</v>
       </c>
       <c r="C17">
-        <v>0.59652755902267318</v>
+        <v>0.59652755903871313</v>
       </c>
       <c r="D17">
-        <v>0.1682007873450389</v>
+        <v>0.16820078740707051</v>
       </c>
       <c r="E17">
-        <v>0.45275590535963006</v>
+        <v>0.45275590552660872</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.99999999992174327</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
@@ -2013,19 +2025,19 @@
         <v>160</v>
       </c>
       <c r="B18">
-        <v>0.2274015748868502</v>
+        <v>0.22740157478689405</v>
       </c>
       <c r="C18">
-        <v>0.7725984251131498</v>
+        <v>0.77259842518306454</v>
       </c>
       <c r="D18">
-        <v>0.21046062985663846</v>
+        <v>0.2104606299222084</v>
       </c>
       <c r="E18">
-        <v>0.3504251967427966</v>
+        <v>0.35042519685197299</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.99999999993991717</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
@@ -2033,19 +2045,19 @@
         <v>170</v>
       </c>
       <c r="B19">
-        <v>0.072000000071779632</v>
+        <v>0.072000001220770563</v>
       </c>
       <c r="C19">
-        <v>0.92799999992822024</v>
+        <v>0.92799999873276218</v>
       </c>
       <c r="D19">
-        <v>0.1337239999775732</v>
+        <v>0.13372399961131753</v>
       </c>
       <c r="E19">
-        <v>0.21282399996430734</v>
+        <v>0.21282399938139618</v>
       </c>
       <c r="F19">
-        <v>0.99999999999999978</v>
+        <v>0.99999999990706545</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
@@ -2053,19 +2065,19 @@
         <v>180</v>
       </c>
       <c r="B20">
-        <v>0.0040000000000273029</v>
+        <v>0.0039999999530663027</v>
       </c>
       <c r="C20">
-        <v>0.9959999999999728</v>
+        <v>0.99599999994527844</v>
       </c>
       <c r="D20">
-        <v>-0.012991999999999285</v>
+        <v>-0.012991999999900018</v>
       </c>
       <c r="E20">
-        <v>0.056255999999996899</v>
+        <v>0.056255999999552511</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.99999999979668952</v>
       </c>
     </row>
   </sheetData>
@@ -2079,7 +2091,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="14.42578125" customWidth="true"/>
     <col min="5" max="5" width="14.42578125" customWidth="true"/>
@@ -2087,22 +2099,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="222" t="s">
+      <c r="B1" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="222" t="s">
+      <c r="C1" s="228" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="222" t="s">
+      <c r="D1" s="228" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="222" t="s">
+      <c r="E1" s="228" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="222" t="s">
+      <c r="F1" s="228" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2111,16 +2123,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.10751885112282542</v>
+        <v>0.078447912035189665</v>
       </c>
       <c r="C2">
-        <v>0.89248114887717456</v>
+        <v>0.92155208796481036</v>
       </c>
       <c r="D2">
-        <v>-0.010596991019683713</v>
+        <v>-0.011381906375049884</v>
       </c>
       <c r="E2">
-        <v>0.047018582003302521</v>
+        <v>0.050501231647280154</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2131,16 +2143,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.13237696944584326</v>
+        <v>0.1058085351554611</v>
       </c>
       <c r="C3">
-        <v>0.86762303055415679</v>
+        <v>0.89419146484453893</v>
       </c>
       <c r="D3">
-        <v>-0.14285830967334529</v>
+        <v>-0.15318280323858785</v>
       </c>
       <c r="E3">
-        <v>-0.093219174465882682</v>
+        <v>-0.099956204808261145</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2151,19 +2163,19 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0.24328480732079821</v>
+        <v>0.22471494424696103</v>
       </c>
       <c r="C4">
-        <v>0.75671519267920173</v>
+        <v>0.77528505575303885</v>
       </c>
       <c r="D4">
-        <v>-0.22015329287319579</v>
+        <v>-0.23607839828376023</v>
       </c>
       <c r="E4">
-        <v>-0.22265936350511908</v>
+        <v>-0.23876574914301432</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="5">
@@ -2171,16 +2183,16 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>0.38205654323897253</v>
+        <v>0.37346309182404569</v>
       </c>
       <c r="C5">
-        <v>0.61794345676102747</v>
+        <v>0.62653690817595442</v>
       </c>
       <c r="D5">
-        <v>-0.20432566090514426</v>
+        <v>-0.21921298647648857</v>
       </c>
       <c r="E5">
-        <v>-0.32547896278906718</v>
+        <v>-0.34919361157179524</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2191,16 +2203,16 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.47508718504258246</v>
+        <v>0.47327282185897035</v>
       </c>
       <c r="C6">
-        <v>0.52491281495741748</v>
+        <v>0.52672717814102965</v>
       </c>
       <c r="D6">
-        <v>-0.10582651390917869</v>
+        <v>-0.11353370119471919</v>
       </c>
       <c r="E6">
-        <v>-0.3871943876219246</v>
+        <v>-0.41539317780293133</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2211,16 +2223,16 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>0.48375944976013191</v>
+        <v>0.48256308252535757</v>
       </c>
       <c r="C7">
-        <v>0.51624055023986815</v>
+        <v>0.51743691747464238</v>
       </c>
       <c r="D7">
-        <v>0.028141625455643415</v>
+        <v>0.030214690600060351</v>
       </c>
       <c r="E7">
-        <v>-0.39626942585278141</v>
+        <v>-0.42546078638127455</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2231,16 +2243,16 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>0.39936054132861215</v>
+        <v>0.39196951959502585</v>
       </c>
       <c r="C8">
-        <v>0.60063945867138779</v>
+        <v>0.60803048040497409</v>
       </c>
       <c r="D8">
-        <v>0.1370308689327645</v>
+        <v>0.14709449749183015</v>
       </c>
       <c r="E8">
-        <v>-0.36076150209992086</v>
+        <v>-0.38725604149692017</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2251,16 +2263,16 @@
         <v>70</v>
       </c>
       <c r="B9">
-        <v>0.27635297324174463</v>
+        <v>0.25975308663475405</v>
       </c>
       <c r="C9">
-        <v>0.72364702675825532</v>
+        <v>0.74024691336524595</v>
       </c>
       <c r="D9">
-        <v>0.15694539481340974</v>
+        <v>0.16859444642458124</v>
       </c>
       <c r="E9">
-        <v>-0.28472209584636626</v>
+        <v>-0.30585519371966463</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2271,19 +2283,19 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>0.15863259598023485</v>
+        <v>0.13342856133970205</v>
       </c>
       <c r="C10">
-        <v>0.84136740401976506</v>
+        <v>0.86657143866029795</v>
       </c>
       <c r="D10">
-        <v>0.09755378681666721</v>
+        <v>0.10475643414997875</v>
       </c>
       <c r="E10">
-        <v>-0.17697967630100184</v>
+        <v>-0.19004654161864787</v>
       </c>
       <c r="F10">
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2291,19 +2303,19 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>0.10311053966080717</v>
+        <v>0.074091181080847585</v>
       </c>
       <c r="C11">
-        <v>0.89688946033919281</v>
+        <v>0.92590881891915233</v>
       </c>
       <c r="D11">
-        <v>-0.029276244501280455</v>
+        <v>-0.031416835073605459</v>
       </c>
       <c r="E11">
-        <v>-0.045687462349127086</v>
+        <v>-0.049027991602246176</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="12">
@@ -2311,16 +2323,16 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>0.1412879993239885</v>
+        <v>0.11538379765139822</v>
       </c>
       <c r="C12">
-        <v>0.8587120006760115</v>
+        <v>0.88461620234860172</v>
       </c>
       <c r="D12">
-        <v>-0.16376507238135107</v>
+        <v>-0.1755912824158585</v>
       </c>
       <c r="E12">
-        <v>0.094911934360684666</v>
+        <v>0.1017659506305096</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2331,16 +2343,16 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>0.26104696909219521</v>
+        <v>0.24392656653287784</v>
       </c>
       <c r="C13">
-        <v>0.73895303090780473</v>
+        <v>0.75607343346712219</v>
       </c>
       <c r="D13">
-        <v>-0.2417091554116402</v>
+        <v>-0.2590270275775578</v>
       </c>
       <c r="E13">
-        <v>0.22714153915719767</v>
+        <v>0.24341567710615139</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2351,16 +2363,16 @@
         <v>120</v>
       </c>
       <c r="B14">
-        <v>0.40122495728848212</v>
+        <v>0.39417130300210584</v>
       </c>
       <c r="C14">
-        <v>0.59877504271151794</v>
+        <v>0.60582869699789421</v>
       </c>
       <c r="D14">
-        <v>-0.22250285156479652</v>
+        <v>-0.23839206962623274</v>
       </c>
       <c r="E14">
-        <v>0.33008898235990136</v>
+        <v>0.35366106596920593</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2371,16 +2383,16 @@
         <v>130</v>
       </c>
       <c r="B15">
-        <v>0.4967685669901174</v>
+        <v>0.4965329147632801</v>
       </c>
       <c r="C15">
-        <v>0.5032314330098826</v>
+        <v>0.5034670852367199</v>
       </c>
       <c r="D15">
-        <v>-0.11663903887009502</v>
+        <v>-0.12514493986257727</v>
       </c>
       <c r="E15">
-        <v>0.38431314289981888</v>
+        <v>0.41233917582397789</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2391,16 +2403,16 @@
         <v>140</v>
       </c>
       <c r="B16">
-        <v>0.50325251847504326</v>
+        <v>0.50349237170126426</v>
       </c>
       <c r="C16">
-        <v>0.49674748152495674</v>
+        <v>0.49650762829873579</v>
       </c>
       <c r="D16">
-        <v>0.026739759587709609</v>
+        <v>0.028711652339340973</v>
       </c>
       <c r="E16">
-        <v>0.39626199744679336</v>
+        <v>0.42548388173297241</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2411,16 +2423,16 @@
         <v>150</v>
       </c>
       <c r="B17">
-        <v>0.42307029927008666</v>
+        <v>0.41733021911703333</v>
       </c>
       <c r="C17">
-        <v>0.57692970072991334</v>
+        <v>0.58266978088296661</v>
       </c>
       <c r="D17">
-        <v>0.13405121152965521</v>
+        <v>0.14405339133138856</v>
       </c>
       <c r="E17">
-        <v>0.36083349310465906</v>
+        <v>0.38775694598014393</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2431,16 +2443,16 @@
         <v>160</v>
       </c>
       <c r="B18">
-        <v>0.28288374549416007</v>
+        <v>0.26663339277515924</v>
       </c>
       <c r="C18">
-        <v>0.71711625450583993</v>
+        <v>0.73336660722484071</v>
       </c>
       <c r="D18">
-        <v>0.16762541330327385</v>
+        <v>0.18017155867155271</v>
       </c>
       <c r="E18">
-        <v>0.27910288245314552</v>
+        <v>0.29999270617950075</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2451,19 +2463,19 @@
         <v>170</v>
       </c>
       <c r="B19">
-        <v>0.15823002616890203</v>
+        <v>0.13297383448058553</v>
       </c>
       <c r="C19">
-        <v>0.84176997383109786</v>
+        <v>0.86702616551941447</v>
       </c>
       <c r="D19">
-        <v>0.10678235509483582</v>
+        <v>0.11467338074279947</v>
       </c>
       <c r="E19">
-        <v>0.16994591801548967</v>
+        <v>0.18250461834229875</v>
       </c>
       <c r="F19">
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2471,16 +2483,16 @@
         <v>180</v>
       </c>
       <c r="B20">
-        <v>0.10332930312388966</v>
+        <v>0.074236422037802174</v>
       </c>
       <c r="C20">
-        <v>0.89667069687611034</v>
+        <v>0.92576357796219788</v>
       </c>
       <c r="D20">
-        <v>-0.010390213092367789</v>
+        <v>-0.011152258880816283</v>
       </c>
       <c r="E20">
-        <v>0.044990134523109786</v>
+        <v>0.048289830326293158</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2504,22 +2516,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="230" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="230" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="224" t="s">
+      <c r="C1" s="230" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="224" t="s">
+      <c r="D1" s="230" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="224" t="s">
+      <c r="E1" s="230" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="224" t="s">
+      <c r="F1" s="230" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2528,19 +2540,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0037280465348734876</v>
+        <v>0.0037280535604103308</v>
       </c>
       <c r="C2">
-        <v>0.99627195346512643</v>
+        <v>0.99627194643958972</v>
       </c>
       <c r="D2">
-        <v>-0.013399342743558416</v>
+        <v>-0.013399342553868919</v>
       </c>
       <c r="E2">
-        <v>0.059452545954612121</v>
+        <v>0.059452545112964619</v>
       </c>
       <c r="F2">
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2548,16 +2560,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.046448475500789906</v>
+        <v>0.046448481376483171</v>
       </c>
       <c r="C3">
-        <v>0.9535515244992101</v>
+        <v>0.95355151862351684</v>
       </c>
       <c r="D3">
-        <v>-0.17625012242039304</v>
+        <v>-0.17625012013709856</v>
       </c>
       <c r="E3">
-        <v>-0.11500829702596792</v>
+        <v>-0.11500829553605232</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2568,19 +2580,19 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0.18299262328529478</v>
+        <v>0.18299262732560764</v>
       </c>
       <c r="C4">
-        <v>0.81700737671470514</v>
+        <v>0.81700737267439238</v>
       </c>
       <c r="D4">
-        <v>-0.27185854144615335</v>
+        <v>-0.27185853798126997</v>
       </c>
       <c r="E4">
-        <v>-0.27495318835269816</v>
+        <v>-0.27495318484837311</v>
       </c>
       <c r="F4">
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2588,16 +2600,16 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>0.35330061352512782</v>
+        <v>0.35330061573452604</v>
       </c>
       <c r="C5">
-        <v>0.64669938647487224</v>
+        <v>0.64669938426547402</v>
       </c>
       <c r="D5">
-        <v>-0.2541425350673801</v>
+        <v>-0.25414253123981079</v>
       </c>
       <c r="E5">
-        <v>-0.40483436269277939</v>
+        <v>-0.40483435659568279</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2608,16 +2620,16 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.46902688382941682</v>
+        <v>0.46902688429218181</v>
       </c>
       <c r="C6">
-        <v>0.53097311617058318</v>
+        <v>0.53097311570781813</v>
       </c>
       <c r="D6">
-        <v>-0.13156991350995073</v>
+        <v>-0.13156991154418296</v>
       </c>
       <c r="E6">
-        <v>-0.48138344739083849</v>
+        <v>-0.48138344019855545</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2628,19 +2640,19 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>0.47957673438743614</v>
+        <v>0.47957673475822471</v>
       </c>
       <c r="C7">
-        <v>0.52042326561256391</v>
+        <v>0.52042326524177518</v>
       </c>
       <c r="D7">
-        <v>0.035389434653450638</v>
+        <v>0.03538943401094815</v>
       </c>
       <c r="E7">
-        <v>-0.49832768094655794</v>
+        <v>-0.49832767189931615</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="8">
@@ -2648,16 +2660,16 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>0.37382737162118568</v>
+        <v>0.37382737349270018</v>
       </c>
       <c r="C8">
-        <v>0.62617262837881427</v>
+        <v>0.62617262650729977</v>
       </c>
       <c r="D8">
-        <v>0.17179687898296683</v>
+        <v>0.17179687643470934</v>
       </c>
       <c r="E8">
-        <v>-0.45229006136116223</v>
+        <v>-0.4522900546523585</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2668,16 +2680,16 @@
         <v>70</v>
       </c>
       <c r="B9">
-        <v>0.21662222497073449</v>
+        <v>0.21662222943599826</v>
       </c>
       <c r="C9">
-        <v>0.78337777502926553</v>
+        <v>0.78337777056400171</v>
       </c>
       <c r="D9">
-        <v>0.19886173953650388</v>
+        <v>0.19886173640298313</v>
       </c>
       <c r="E9">
-        <v>-0.36076452789075286</v>
+        <v>-0.36076452220608407</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2688,16 +2700,16 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>0.069740237018533768</v>
+        <v>0.069740242069462444</v>
       </c>
       <c r="C10">
-        <v>0.93025976298146629</v>
+        <v>0.9302597579305375</v>
       </c>
       <c r="D10">
-        <v>0.12295687490787335</v>
+        <v>0.12295687346445136</v>
       </c>
       <c r="E10">
-        <v>-0.22306533277968371</v>
+        <v>-0.22306533016106311</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2708,19 +2720,19 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>0.0046085796420971816</v>
+        <v>0.0046085852110725571</v>
       </c>
       <c r="C11">
-        <v>0.99539142035790285</v>
+        <v>0.99539141478892734</v>
       </c>
       <c r="D11">
-        <v>-0.036542165503310998</v>
+        <v>-0.036542165092519827</v>
       </c>
       <c r="E11">
-        <v>-0.057026399356484125</v>
+        <v>-0.057026398715418085</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="12">
@@ -2728,16 +2740,16 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>0.057787635435619433</v>
+        <v>0.057787641037198197</v>
       </c>
       <c r="C12">
-        <v>0.94221236456438062</v>
+        <v>0.94221235896280187</v>
       </c>
       <c r="D12">
-        <v>-0.20188602487326024</v>
+        <v>-0.2018860223159358</v>
       </c>
       <c r="E12">
-        <v>0.11700537155132996</v>
+        <v>0.1170053700692031</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2748,16 +2760,16 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>0.20773645934662813</v>
+        <v>0.20773646220430927</v>
       </c>
       <c r="C13">
-        <v>0.7922635406533719</v>
+        <v>0.7922635377956907</v>
       </c>
       <c r="D13">
-        <v>-0.29563455755536411</v>
+        <v>-0.29563455466472188</v>
       </c>
       <c r="E13">
-        <v>0.27781690071616005</v>
+        <v>0.27781689799973452</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2768,16 +2780,16 @@
         <v>120</v>
       </c>
       <c r="B14">
-        <v>0.37958659224060654</v>
+        <v>0.37958659423786323</v>
       </c>
       <c r="C14">
-        <v>0.62041340775939346</v>
+        <v>0.62041340576213677</v>
       </c>
       <c r="D14">
-        <v>-0.27124591250594798</v>
+        <v>-0.27124590800688309</v>
       </c>
       <c r="E14">
-        <v>0.40240062812092575</v>
+        <v>0.40240062144644162</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2788,16 +2800,16 @@
         <v>130</v>
       </c>
       <c r="B15">
-        <v>0.495977164927634</v>
+        <v>0.49597716499324351</v>
       </c>
       <c r="C15">
-        <v>0.504022835072366</v>
+        <v>0.50402283500675649</v>
       </c>
       <c r="D15">
-        <v>-0.14520481004516397</v>
+        <v>-0.14520480767698113</v>
       </c>
       <c r="E15">
-        <v>0.47843429998406578</v>
+        <v>0.47843429218115691</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2808,16 +2820,16 @@
         <v>140</v>
       </c>
       <c r="B16">
-        <v>0.50409455060018538</v>
+        <v>0.50409455055618335</v>
       </c>
       <c r="C16">
-        <v>0.49590544939981474</v>
+        <v>0.49590544944381665</v>
       </c>
       <c r="D16">
-        <v>0.03366231414479845</v>
+        <v>0.033662313783047869</v>
       </c>
       <c r="E16">
-        <v>0.49884875733251999</v>
+        <v>0.49884875197166362</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2828,16 +2840,16 @@
         <v>150</v>
       </c>
       <c r="B17">
-        <v>0.40201070597430849</v>
+        <v>0.40201070710387871</v>
       </c>
       <c r="C17">
-        <v>0.59798929402569156</v>
+        <v>0.59798929289612124</v>
       </c>
       <c r="D17">
-        <v>0.17074788354105627</v>
+        <v>0.17074788157276241</v>
       </c>
       <c r="E17">
-        <v>0.45961207329123593</v>
+        <v>0.45961206799306403</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2848,16 +2860,16 @@
         <v>160</v>
       </c>
       <c r="B18">
-        <v>0.22258914104271463</v>
+        <v>0.22258914479941183</v>
       </c>
       <c r="C18">
-        <v>0.77741085895728534</v>
+        <v>0.77741085520058817</v>
       </c>
       <c r="D18">
-        <v>0.21417608733794929</v>
+        <v>0.2141760844375771</v>
       </c>
       <c r="E18">
-        <v>0.35661157905935958</v>
+        <v>0.35661157423012635</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2868,16 +2880,16 @@
         <v>170</v>
       </c>
       <c r="B19">
-        <v>0.068849860138126953</v>
+        <v>0.068849865463927351</v>
       </c>
       <c r="C19">
-        <v>0.93115013986187312</v>
+        <v>0.93115013453607265</v>
       </c>
       <c r="D19">
-        <v>0.13470822734319882</v>
+        <v>0.13470822567920973</v>
       </c>
       <c r="E19">
-        <v>0.21439041440645615</v>
+        <v>0.21439041175818949</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2888,19 +2900,19 @@
         <v>180</v>
       </c>
       <c r="B20">
-        <v>0.0033534720060074109</v>
+        <v>0.0033534789136106121</v>
       </c>
       <c r="C20">
-        <v>0.99664652799399256</v>
+        <v>0.99664652108638929</v>
       </c>
       <c r="D20">
-        <v>-0.013008934862294255</v>
+        <v>-0.013008934681359616</v>
       </c>
       <c r="E20">
-        <v>0.056329328787963796</v>
+        <v>0.056329328004507899</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
   </sheetData>
